--- a/smart-ppe/bq2550570_Design_Help.xlsx
+++ b/smart-ppe/bq2550570_Design_Help.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\smart-ppe\hardware\smart-ppe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\smart-ppe\smart-ppe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B5930-21C8-4B9B-878A-7099F0B42DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FC4061-19CC-4D4A-AA80-7D1E5481A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3285" yWindow="1747" windowWidth="11055" windowHeight="8041" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bq25505(70" sheetId="1" r:id="rId1"/>
@@ -2232,9 +2232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2456,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="13">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>1</v>
@@ -2498,7 +2498,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="13">
-        <v>4</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="13">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>1</v>
@@ -2522,7 +2522,7 @@
         <v>44</v>
       </c>
       <c r="O9" s="13">
-        <v>2.15</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>1</v>
@@ -2649,15 +2649,15 @@
       </c>
       <c r="I13" s="31">
         <f>C1/I9*I7</f>
-        <v>5.0741935483870968</v>
+        <v>3.2770833333333331</v>
       </c>
       <c r="J13" s="52">
         <f>IF(I13&gt;1,VLOOKUP(I13*10,$AA$27:$AA$133,1)/10,IF(I13&gt;0.099,VLOOKUP(I13*100,$AB$27:$AB$133,1)/100,VLOOKUP(I13*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>4.99</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="K13" s="52">
         <f ca="1">IF(I13&gt;1,OFFSET($AA$27,MATCH(I13*10,$AA$27:$AA$133,1),0)/10,IF(I13&gt;0.099, OFFSET($AB$27,MATCH(I13*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(I13*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>5.1100000000000003</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="L13" s="54" t="s">
         <v>59</v>
@@ -2701,15 +2701,15 @@
       </c>
       <c r="C14" s="31">
         <f>C8*$C$1/C9*3/2</f>
-        <v>5.8987499999999997</v>
+        <v>4.6796905989686639</v>
       </c>
       <c r="D14" s="52">
         <f>IF(C14&gt;1,VLOOKUP(C14*10,$AA$27:$AA$133,1)/10,IF(C14&gt;0.099,VLOOKUP(C14*100,$AB$27:$AB$133,1)/100,VLOOKUP(C14*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>5.76</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="E14" s="52">
         <f ca="1">IF(C14&gt;1,OFFSET($AA$27,MATCH(C14*10,$AA$27:$AA$133,1),0)/10,IF(C14&gt;0.099, OFFSET($AB$27,MATCH(C14*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(C14*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>5.9</v>
+        <v>4.75</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>59</v>
@@ -2719,15 +2719,15 @@
       </c>
       <c r="I14" s="31">
         <f>(I8/C1-1)*I13</f>
-        <v>6.6677419354838703</v>
+        <v>3.2229166666666664</v>
       </c>
       <c r="J14" s="52">
         <f>IF(I14&gt;1,VLOOKUP(I14*10,$AA$27:$AA$133,1)/10,IF(I14&gt;0.099,VLOOKUP(I14*100,$AB$27:$AB$133,1)/100,VLOOKUP(I14*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>6.65</v>
+        <v>3.16</v>
       </c>
       <c r="K14" s="52">
         <f ca="1">IF(I14&gt;1,OFFSET($AA$27,MATCH(I14*10,$AA$27:$AA$133,1),0)/10,IF(I14&gt;0.099, OFFSET($AB$27,MATCH(I14*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(I14*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>6.81</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="L14" s="54" t="s">
         <v>59</v>
@@ -2737,15 +2737,15 @@
       </c>
       <c r="O14" s="31">
         <f>IF(O8*$C$1/O9&lt;=10, O8*$C$1/O9, O8*$C$1/O9-10)</f>
-        <v>7.3162790697674422</v>
+        <v>6.8391304347826098</v>
       </c>
       <c r="P14" s="52">
         <f>IF(O14&gt;1,VLOOKUP(O14*10,$AA$26:$AA$132,1)/10,IF(O14&gt;0.099,VLOOKUP(O14*100,$AB$26:$AB$132,1)/100,VLOOKUP(O14*1000,$AB$26:$AB$132,1)/1000))</f>
-        <v>7.15</v>
+        <v>6.81</v>
       </c>
       <c r="Q14" s="52">
         <f ca="1">IF(O14&gt;1,OFFSET($AA$26,MATCH(O14*10,$AA$26:$AA$132,1),0)/10,IF(O14&gt;0.099, OFFSET($AB$26,MATCH(O14*100,$AB$26:$AB$132,1),0)/100,OFFSET($AB$26,MATCH(O14*1000,$AB$26:$AB$132,1),0)/1000))</f>
-        <v>7.32</v>
+        <v>6.9799999999999995</v>
       </c>
       <c r="R14" s="54" t="s">
         <v>59</v>
@@ -2778,15 +2778,15 @@
       </c>
       <c r="C15" s="31">
         <f>C8-C14</f>
-        <v>7.1012500000000003</v>
+        <v>8.3203094010313361</v>
       </c>
       <c r="D15" s="52">
         <f>IF(C15&gt;1,VLOOKUP(C15*10,$AA$27:$AA$133,1)/10,IF(C15&gt;0.099,VLOOKUP(C15*100,$AB$27:$AB$133,1)/100,VLOOKUP(C15*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>6.9799999999999995</v>
+        <v>8.25</v>
       </c>
       <c r="E15" s="52">
         <f ca="1">IF(C15&gt;1,OFFSET($AA$27,MATCH(C15*10,$AA$27:$AA$133,1),0)/10,IF(C15&gt;0.099, OFFSET($AB$27,MATCH(C15*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(C15*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>7.15</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>59</v>
@@ -2796,15 +2796,15 @@
       </c>
       <c r="I15" s="31">
         <f>I7-I13-I14</f>
-        <v>1.2580645161290329</v>
+        <v>6.5</v>
       </c>
       <c r="J15" s="52">
         <f>IF(I15&gt;1,VLOOKUP(I15*10,$AA$27:$AA$133,1)/10,IF(I15&gt;0.099,VLOOKUP(I15*100,$AB$27:$AB$133,1)/100,VLOOKUP(I15*1000,$AB$27:$AB$133,1)/1000))</f>
-        <v>1.1300000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="K15" s="52">
         <f ca="1">IF(I15&gt;1,OFFSET($AA$27,MATCH(I15*10,$AA$27:$AA$133,1),0)/10,IF(I15&gt;0.099, OFFSET($AB$27,MATCH(I15*100,$AB$27:$AB$133,1),0)/100,OFFSET($AB$27,MATCH(I15*1000,$AB$27:$AB$133,1),0)/1000))</f>
-        <v>1.27</v>
+        <v>6.65</v>
       </c>
       <c r="L15" s="54" t="s">
         <v>59</v>
@@ -2856,11 +2856,11 @@
       <c r="C16" s="32"/>
       <c r="D16" s="53">
         <f>C1*(1+D15/D14)*3/2</f>
-        <v>4.0144270833333326</v>
+        <v>5.0421012931034488</v>
       </c>
       <c r="E16" s="53">
         <f ca="1">C1*(1+E15/E14)*3/2</f>
-        <v>4.0145338983050847</v>
+        <v>5.0437894736842095</v>
       </c>
       <c r="F16" s="83" t="s">
         <v>1</v>
@@ -2871,11 +2871,11 @@
       <c r="I16" s="18"/>
       <c r="J16" s="53">
         <f>C1*(1+J14/J13)</f>
-        <v>2.8225250501002006</v>
+        <v>2.3901234567901235</v>
       </c>
       <c r="K16" s="53">
         <f ca="1">C1*(1+K14/K13)</f>
-        <v>2.8225440313111543</v>
+        <v>2.3908433734939756</v>
       </c>
       <c r="L16" s="83" t="s">
         <v>1</v>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="O16" s="31">
         <f>IF(O8*$C$1/O9&lt;=10, O8-O14, O8-O14-10)</f>
-        <v>5.6837209302325578</v>
+        <v>6.1608695652173902</v>
       </c>
       <c r="P16" s="52">
         <f>IF(O16&gt;1,VLOOKUP(O16*10,$AA$26:$AA$132,1)/10,IF(O16&gt;0.099,VLOOKUP(O16*100,$AB$26:$AB$132,1)/100,VLOOKUP(O16*1000,$AB$26:$AB$132,1)/1000))</f>
-        <v>5.62</v>
+        <v>6.04</v>
       </c>
       <c r="Q16" s="52">
         <f ca="1">IF(O16&gt;1,OFFSET($AA$26,MATCH(O16*10,$AA$26:$AA$132,1),0)/10,IF(O16&gt;0.099, OFFSET($AB$26,MATCH(O16*100,$AB$26:$AB$132,1),0)/100,OFFSET($AB$26,MATCH(O16*1000,$AB$26:$AB$132,1),0)/1000))</f>
-        <v>5.76</v>
+        <v>6.1899999999999995</v>
       </c>
       <c r="R16" s="54" t="s">
         <v>59</v>
@@ -2932,11 +2932,11 @@
       <c r="I17" s="18"/>
       <c r="J17" s="53">
         <f>(C1*((J13+J14+J15)/J13))</f>
-        <v>3.0965330661322645</v>
+        <v>4.8138580246913589</v>
       </c>
       <c r="K17" s="60">
         <f ca="1">(C1*((K13+K14+K15)/K13))</f>
-        <v>3.1232681017612522</v>
+        <v>4.8144879518072283</v>
       </c>
       <c r="L17" s="83" t="s">
         <v>1</v>
@@ -2947,11 +2947,11 @@
       <c r="O17" s="18"/>
       <c r="P17" s="53">
         <f>$C$1*(1+P16/(P14+P15))</f>
-        <v>2.1610769230769229</v>
+        <v>2.283186490455213</v>
       </c>
       <c r="Q17" s="53">
         <f ca="1">$C$1*(1+Q16/(Q14+Q15))</f>
-        <v>2.1621311475409835</v>
+        <v>2.283051575931232</v>
       </c>
       <c r="R17" s="92" t="s">
         <v>1</v>
@@ -3003,7 +3003,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="13">
-        <v>5.9</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>58</v>
@@ -3014,7 +3014,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="13">
-        <v>3.6</v>
+        <v>3.24</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>58</v>
@@ -3025,7 +3025,7 @@
         <v>45</v>
       </c>
       <c r="O19" s="13">
-        <v>7.15</v>
+        <v>6.81</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>58</v>
@@ -3052,7 +3052,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="13">
-        <v>7.15</v>
+        <v>8.25</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>58</v>
@@ -3063,7 +3063,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="13">
-        <v>6.2</v>
+        <v>3.16</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>58</v>
@@ -3108,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="13">
-        <v>2</v>
+        <v>6.49</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>58</v>
@@ -3119,7 +3119,7 @@
         <v>46</v>
       </c>
       <c r="O21" s="13">
-        <v>5.62</v>
+        <v>6.04</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>58</v>
@@ -3177,14 +3177,14 @@
       </c>
       <c r="C23" s="64">
         <f>$C$1*(1+C20/C19)*3/2</f>
-        <v>4.0145338983050847</v>
+        <v>5.0421012931034488</v>
       </c>
       <c r="D23" s="86" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="65">
         <f>(C23-C9)/C23*100</f>
-        <v>0.36203202347402785</v>
+        <v>2.0089462222332168E-3</v>
       </c>
       <c r="F23" s="84" t="s">
         <v>2</v>
@@ -3194,14 +3194,14 @@
       </c>
       <c r="I23" s="64">
         <f>C1*(1+I20/I19)</f>
-        <v>3.2938888888888891</v>
+        <v>2.3901234567901231</v>
       </c>
       <c r="J23" s="79" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="65">
         <f>(I23-I8)/I23*100</f>
-        <v>14.99409681227864</v>
+        <v>-0.41322314049588077</v>
       </c>
       <c r="L23" s="84" t="s">
         <v>2</v>
@@ -3211,11 +3211,11 @@
       </c>
       <c r="O23" s="64">
         <f>$C$1*(1+O21/(O19+O20))</f>
-        <v>2.1610769230769229</v>
+        <v>2.283186490455213</v>
       </c>
       <c r="P23" s="65">
         <f>(O23-O9)/O23*100</f>
-        <v>0.51256496048978006</v>
+        <v>-0.73640544103931527</v>
       </c>
       <c r="Q23" s="94" t="s">
         <v>2</v>
@@ -3241,14 +3241,14 @@
       </c>
       <c r="I24" s="77">
         <f>(C1*((I19+I20+I21)/I19))</f>
-        <v>3.9661111111111107</v>
+        <v>4.813858024691358</v>
       </c>
       <c r="J24" s="97" t="s">
         <v>1</v>
       </c>
       <c r="K24" s="78">
         <f>(I24-I9)/I24*100</f>
-        <v>21.837792407900256</v>
+        <v>0.28787771929037581</v>
       </c>
       <c r="L24" s="82" t="s">
         <v>2</v>
